--- a/DDF/Phase2.1/TY_04/Phase2.1.xlsx
+++ b/DDF/Phase2.1/TY_04/Phase2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="390">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1101,13 +1101,103 @@
   </si>
   <si>
     <t>JINCY_WRAPPER_03_FD</t>
+  </si>
+  <si>
+    <t>Reference Num</t>
+  </si>
+  <si>
+    <t>IVATAX</t>
+  </si>
+  <si>
+    <t>IEPSTAX</t>
+  </si>
+  <si>
+    <t>NOTAX</t>
+  </si>
+  <si>
+    <t>IEPSANDIVA</t>
+  </si>
+  <si>
+    <t>ITEMDISC</t>
+  </si>
+  <si>
+    <t>CATEGORYDISC</t>
+  </si>
+  <si>
+    <t>NOITEMDISC</t>
+  </si>
+  <si>
+    <t>NOCATEGORYDISC</t>
+  </si>
+  <si>
+    <t>ONSITE INV STATUS: SUCCESS</t>
+  </si>
+  <si>
+    <t>ExtraInv2</t>
+  </si>
+  <si>
+    <t>ExtraInv1</t>
+  </si>
+  <si>
+    <t>ExtraInv3</t>
+  </si>
+  <si>
+    <t>ExtraInv4</t>
+  </si>
+  <si>
+    <t>ExtraInv5</t>
+  </si>
+  <si>
+    <t>ExtraInv6</t>
+  </si>
+  <si>
+    <t>TC428</t>
+  </si>
+  <si>
+    <t>Please Pay Total Balance Amount $0.05</t>
+  </si>
+  <si>
+    <t>VLA_TC_125</t>
+  </si>
+  <si>
+    <t>VLA_TC_126</t>
+  </si>
+  <si>
+    <t>VLA_TC_127</t>
+  </si>
+  <si>
+    <t>VLA_TC_128</t>
+  </si>
+  <si>
+    <t>VLA_TC_129</t>
+  </si>
+  <si>
+    <t>VLA_TC_130</t>
+  </si>
+  <si>
+    <t>VLA_TC_131</t>
+  </si>
+  <si>
+    <t>VLA_TC_132</t>
+  </si>
+  <si>
+    <t>VLA_TC_133</t>
+  </si>
+  <si>
+    <t>VLA_TC_134</t>
+  </si>
+  <si>
+    <t>Vanload Stock Applied</t>
+  </si>
+  <si>
+    <t>Stock already applied</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,6 +1231,24 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1191,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1231,6 +1339,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1511,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1760,6 +1876,12 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
+      <c r="Q11" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
@@ -2046,10 +2168,10 @@
         <v>1234567890</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="75">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="60">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -2319,6 +2441,14 @@
       </c>
       <c r="R54" s="2">
         <v>789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D55" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2329,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O66" workbookViewId="0">
-      <selection activeCell="P73" sqref="P73"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2564,6 +2694,9 @@
       <c r="A31" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>171</v>
       </c>
@@ -3191,6 +3324,77 @@
     <row r="90" spans="1:20">
       <c r="A90" s="11" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="16"/>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" t="s">
+        <v>361</v>
+      </c>
+      <c r="B94" t="s">
+        <v>362</v>
+      </c>
+      <c r="C94" t="s">
+        <v>363</v>
+      </c>
+      <c r="D94" t="s">
+        <v>364</v>
+      </c>
+      <c r="E94" t="s">
+        <v>365</v>
+      </c>
+      <c r="F94" t="s">
+        <v>366</v>
+      </c>
+      <c r="G94" t="s">
+        <v>367</v>
+      </c>
+      <c r="H94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95">
+        <v>16</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7">
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3201,10 +3405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X119"/>
+  <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3358,6 +3562,9 @@
       <c r="A7" t="s">
         <v>218</v>
       </c>
+      <c r="P7" t="s">
+        <v>371</v>
+      </c>
       <c r="X7" s="2">
         <v>1</v>
       </c>
@@ -3366,6 +3573,9 @@
       <c r="A8" t="s">
         <v>219</v>
       </c>
+      <c r="P8" t="s">
+        <v>370</v>
+      </c>
       <c r="X8" s="2">
         <v>2</v>
       </c>
@@ -3374,6 +3584,9 @@
       <c r="A9" t="s">
         <v>220</v>
       </c>
+      <c r="P9" t="s">
+        <v>372</v>
+      </c>
       <c r="X9" s="2">
         <v>3</v>
       </c>
@@ -3382,6 +3595,9 @@
       <c r="A10" t="s">
         <v>221</v>
       </c>
+      <c r="P10" t="s">
+        <v>373</v>
+      </c>
       <c r="X10" s="2">
         <v>4</v>
       </c>
@@ -3390,6 +3606,9 @@
       <c r="A11" t="s">
         <v>222</v>
       </c>
+      <c r="P11" t="s">
+        <v>374</v>
+      </c>
       <c r="X11" s="2">
         <v>5</v>
       </c>
@@ -3398,6 +3617,9 @@
       <c r="A12" t="s">
         <v>223</v>
       </c>
+      <c r="P12" t="s">
+        <v>375</v>
+      </c>
       <c r="X12" s="2">
         <v>6</v>
       </c>
@@ -3406,6 +3628,9 @@
       <c r="A13" t="s">
         <v>224</v>
       </c>
+      <c r="P13" t="s">
+        <v>371</v>
+      </c>
       <c r="X13" s="2">
         <v>1</v>
       </c>
@@ -3414,6 +3639,9 @@
       <c r="A14" t="s">
         <v>225</v>
       </c>
+      <c r="P14" t="s">
+        <v>370</v>
+      </c>
       <c r="X14" s="2">
         <v>2</v>
       </c>
@@ -3422,6 +3650,9 @@
       <c r="A15" t="s">
         <v>226</v>
       </c>
+      <c r="P15" t="s">
+        <v>372</v>
+      </c>
       <c r="X15" s="2">
         <v>3</v>
       </c>
@@ -3430,6 +3661,9 @@
       <c r="A16" t="s">
         <v>227</v>
       </c>
+      <c r="P16" t="s">
+        <v>373</v>
+      </c>
       <c r="X16" s="2">
         <v>4</v>
       </c>
@@ -3438,6 +3672,9 @@
       <c r="A17" t="s">
         <v>228</v>
       </c>
+      <c r="P17" t="s">
+        <v>374</v>
+      </c>
       <c r="X17" s="2">
         <v>5</v>
       </c>
@@ -3446,6 +3683,9 @@
       <c r="A18" t="s">
         <v>229</v>
       </c>
+      <c r="P18" t="s">
+        <v>375</v>
+      </c>
       <c r="X18" s="2">
         <v>6</v>
       </c>
@@ -4287,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>331</v>
       </c>
@@ -4301,7 +4541,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>332</v>
       </c>
@@ -4315,10 +4555,13 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>334</v>
       </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
       <c r="P99" t="s">
         <v>337</v>
       </c>
@@ -4332,17 +4575,17 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>339</v>
       </c>
@@ -4356,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:20" ht="85.5">
       <c r="A103" t="s">
         <v>342</v>
       </c>
@@ -4369,8 +4612,14 @@
       <c r="R103" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="S103" s="2">
+        <v>36</v>
+      </c>
+      <c r="T103" s="17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>343</v>
       </c>
@@ -4384,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>344</v>
       </c>
@@ -4398,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>345</v>
       </c>
@@ -4412,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>346</v>
       </c>
@@ -4426,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>347</v>
       </c>
@@ -4440,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>348</v>
       </c>
@@ -4454,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>349</v>
       </c>
@@ -4468,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>350</v>
       </c>
@@ -4482,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>351</v>
       </c>
@@ -4591,6 +4840,92 @@
         <v>341</v>
       </c>
       <c r="R119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" t="s">
+        <v>378</v>
+      </c>
+      <c r="R120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" t="s">
+        <v>379</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="R121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" t="s">
+        <v>380</v>
+      </c>
+      <c r="R122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" t="s">
+        <v>381</v>
+      </c>
+      <c r="R123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" t="s">
+        <v>382</v>
+      </c>
+      <c r="R124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" t="s">
+        <v>383</v>
+      </c>
+      <c r="R125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" t="s">
+        <v>384</v>
+      </c>
+      <c r="R126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" t="s">
+        <v>385</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="R127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" t="s">
+        <v>386</v>
+      </c>
+      <c r="R128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" t="s">
+        <v>387</v>
+      </c>
+      <c r="R129" t="b">
         <v>1</v>
       </c>
     </row>
